--- a/biology/Biologie cellulaire et moléculaire/Récepteur_5-HT1A/Récepteur_5-HT1A.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_5-HT1A/Récepteur_5-HT1A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_5-HT1A</t>
+          <t>Récepteur_5-HT1A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récepteur de la sérotonine 1A (récepteur 5-HT1A) est un type de récepteur de la sérotonine, exprimé dans le cerveau et la rate.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_5-HT1A</t>
+          <t>Récepteur_5-HT1A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le plus répandu des récepteurs sérotoninergiques. Dans le système nerveux central, les récepteurs 5-HT1A existent dans le cortex cérébral, l'hippocampe, le septum, l'amygdale et le noyau du raphé en fortes densités, et en  faibles quantités dans les ganglions de la base et le thalamus[5],[6],[7]. Les récepteurs 5-HT1A du noyau du raphé sont en grande part des autorécepteurs somato-dendritiques, tandis que ceux de l'hippocampe sont des récepteurs post-synaptiques[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le plus répandu des récepteurs sérotoninergiques. Dans le système nerveux central, les récepteurs 5-HT1A existent dans le cortex cérébral, l'hippocampe, le septum, l'amygdale et le noyau du raphé en fortes densités, et en  faibles quantités dans les ganglions de la base et le thalamus. Les récepteurs 5-HT1A du noyau du raphé sont en grande part des autorécepteurs somato-dendritiques, tandis que ceux de l'hippocampe sont des récepteurs post-synaptiques.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_5-HT1A</t>
+          <t>Récepteur_5-HT1A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,21 +558,99 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Neuromodulation
-Les agonistes des récepteurs 5-HT1A diminuent la tension artérielle et le rythme cardiaque[8], constrictent la pupille chez les humains[9],[10],[11] et montrent une efficacité dans le soulagement de l'anxiété[12] et de la dépression[13].
-L'activation des récepteurs 5-HT1A augmente la libération de dopamine dans le cortex préfrontal médian, le striatum et l'hippocampe, et améliore les symptômes de la schizophrénie et de la maladie de Parkinson[14]. Son activation altère aussi certains aspects de la mémoire et de l'apprentissage en inhibant la libération de glutamate et d'acétylcholine[15].
+          <t>Neuromodulation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les agonistes des récepteurs 5-HT1A diminuent la tension artérielle et le rythme cardiaque, constrictent la pupille chez les humains et montrent une efficacité dans le soulagement de l'anxiété et de la dépression.
+L'activation des récepteurs 5-HT1A augmente la libération de dopamine dans le cortex préfrontal médian, le striatum et l'hippocampe, et améliore les symptômes de la schizophrénie et de la maladie de Parkinson. Son activation altère aussi certains aspects de la mémoire et de l'apprentissage en inhibant la libération de glutamate et d'acétylcholine.
 Autres effets :
-Diminution de l'agressivité[16],[17] et de l'impulsivité[18]
-Augmentation de la sociabilité[19]
-Facilitation de la libido et de l'excitation[20],[21]
-Inhibition de l'érection pénienne[22],[23]
-Diminution de l'apport alimentaire[24]
-Allongement de la latence du sommeil paradoxal[25],[26]
-Endocrinologie
-L'activation des récepteurs 5-HT1A induit la sécrétion de diverses hormones, notamment le cortisol, la corticostérone, l'hormone adrénocorticotrope (ACTH), l'ocytocine, la prolactine, l'hormone de croissance et la β-endorphine[27],[28],[29],[30].
-Agonistes
-buspirone, aripiprazole
-Antagonistes</t>
+Diminution de l'agressivité, et de l'impulsivité
+Augmentation de la sociabilité
+Facilitation de la libido et de l'excitation,
+Inhibition de l'érection pénienne,
+Diminution de l'apport alimentaire
+Allongement de la latence du sommeil paradoxal,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Récepteur_5-HT1A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_5-HT1A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Endocrinologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activation des récepteurs 5-HT1A induit la sécrétion de diverses hormones, notamment le cortisol, la corticostérone, l'hormone adrénocorticotrope (ACTH), l'ocytocine, la prolactine, l'hormone de croissance et la β-endorphine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Récepteur_5-HT1A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_5-HT1A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Endocrinologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Agonistes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">buspirone, aripiprazole
+</t>
         </is>
       </c>
     </row>
